--- a/assets/file/export/transaction.xlsx
+++ b/assets/file/export/transaction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1314">
   <si>
     <t>Transaction Report</t>
   </si>
@@ -3894,9 +3894,6 @@
     <t>2018-01-18 13:20:49</t>
   </si>
   <si>
-    <t>2018-01-18 13:34:52</t>
-  </si>
-  <si>
     <t>2018-01-18 13:38:50</t>
   </si>
   <si>
@@ -3957,82 +3954,10 @@
     <t>2018-01-21 16:22:56</t>
   </si>
   <si>
-    <t>2018-01-21 16:27:04</t>
-  </si>
-  <si>
-    <t>$80.86</t>
-  </si>
-  <si>
-    <t>$83.86</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:29:23</t>
-  </si>
-  <si>
-    <t>2018-01-21 16:43:39</t>
-  </si>
-  <si>
-    <t>$101.31</t>
-  </si>
-  <si>
-    <t>$104.31</t>
-  </si>
-  <si>
-    <t>2018-01-23 10:16:36</t>
-  </si>
-  <si>
-    <t>$104.17</t>
-  </si>
-  <si>
-    <t>$107.17</t>
-  </si>
-  <si>
-    <t>2018-01-23 17:57:46</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:08:16</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:11:03</t>
-  </si>
-  <si>
-    <t>2018-01-23 18:13:49</t>
-  </si>
-  <si>
-    <t>$35.27</t>
-  </si>
-  <si>
-    <t>$38.27</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 930  store order ID: 113-8101758-4483454</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:41:49</t>
-  </si>
-  <si>
-    <t>$24.76</t>
-  </si>
-  <si>
-    <t>$27.76</t>
-  </si>
-  <si>
-    <t>label fee for order - ID: 960  store order ID: 114-9638223-4108214</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:47:31</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:56:32</t>
-  </si>
-  <si>
-    <t>2018-01-25 10:57:31</t>
-  </si>
-  <si>
     <t>Total Amount</t>
   </si>
   <si>
-    <t>$26,005.58</t>
+    <t>$24,821.34</t>
   </si>
 </sst>
 </file>
@@ -4386,10 +4311,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F603"/>
+  <dimension ref="A1:F590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F603" sqref="F603"/>
+      <selection activeCell="F590" sqref="F590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15879,13 +15804,13 @@
         <v>504</v>
       </c>
       <c r="B575" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="C575" t="s">
         <v>10</v>
       </c>
       <c r="D575" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="E575" t="s">
         <v>1277</v>
@@ -16134,272 +16059,12 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
-      <c r="A588" t="s">
-        <v>504</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C588" t="s">
-        <v>10</v>
-      </c>
-      <c r="D588" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E588" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F588" t="s">
+    <row r="590" spans="1:6">
+      <c r="E590" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="589" spans="1:6">
-      <c r="A589" t="s">
-        <v>504</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C589" t="s">
-        <v>10</v>
-      </c>
-      <c r="D589" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E589" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F589" t="s">
+      <c r="F590" s="1" t="s">
         <v>1313</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6">
-      <c r="A590" t="s">
-        <v>8</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1314</v>
-      </c>
-      <c r="C590" t="s">
-        <v>10</v>
-      </c>
-      <c r="D590" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E590" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6">
-      <c r="A591" t="s">
-        <v>504</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C591" t="s">
-        <v>10</v>
-      </c>
-      <c r="D591" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E591" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F591" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6">
-      <c r="A592" t="s">
-        <v>504</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C592" t="s">
-        <v>10</v>
-      </c>
-      <c r="D592" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E592" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F592" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6">
-      <c r="A593" t="s">
-        <v>504</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C593" t="s">
-        <v>10</v>
-      </c>
-      <c r="D593" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E593" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F593" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6">
-      <c r="A594" t="s">
-        <v>504</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C594" t="s">
-        <v>10</v>
-      </c>
-      <c r="D594" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E594" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6">
-      <c r="A595" t="s">
-        <v>504</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C595" t="s">
-        <v>10</v>
-      </c>
-      <c r="D595" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E595" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F595" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6">
-      <c r="A596" t="s">
-        <v>504</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C596" t="s">
-        <v>10</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E596" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" t="s">
-        <v>8</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C597" t="s">
-        <v>10</v>
-      </c>
-      <c r="D597" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E597" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6">
-      <c r="A598" t="s">
-        <v>8</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C598" t="s">
-        <v>10</v>
-      </c>
-      <c r="D598" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E598" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6">
-      <c r="A599" t="s">
-        <v>8</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C599" t="s">
-        <v>10</v>
-      </c>
-      <c r="D599" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E599" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F599" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6">
-      <c r="A600" t="s">
-        <v>504</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C600" t="s">
-        <v>10</v>
-      </c>
-      <c r="D600" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E600" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F600" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6">
-      <c r="E603" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F603" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
   </sheetData>
